--- a/BOM_LTC3556_v1.2a_.xlsx
+++ b/BOM_LTC3556_v1.2a_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirky\OneDrive\Desktop\Senior Design\LTC3556\LTC3556 v1.2a\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{07942F7E-A7C5-4110-885E-231CEA40C380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C0B005-73D0-408C-883C-79BDF0120785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{EC56C50D-E45E-406B-B017-B7E12E9D3512}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{EC56C50D-E45E-406B-B017-B7E12E9D3512}"/>
   </bookViews>
   <sheets>
     <sheet name="LTC3556_v1.2a_BOM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
   <si>
     <t>Value</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>MFR Part number</t>
+  </si>
+  <si>
+    <t>C&amp;K</t>
   </si>
 </sst>
 </file>
@@ -650,7 +653,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -658,7 +661,6 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -1039,36 +1041,37 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
-    <col min="2" max="4" width="43.28515625" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" customWidth="1"/>
-    <col min="6" max="6" width="43.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="82.5703125" customWidth="1"/>
-    <col min="8" max="8" width="71.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.59765625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="43.265625" customWidth="1"/>
+    <col min="4" max="4" width="63.265625" customWidth="1"/>
+    <col min="5" max="5" width="28.3984375" customWidth="1"/>
+    <col min="6" max="6" width="43.265625" customWidth="1"/>
+    <col min="7" max="7" width="82.59765625" customWidth="1"/>
+    <col min="8" max="8" width="71.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>39</v>
       </c>
       <c r="G1" t="s">
@@ -1081,7 +1084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>5</v>
       </c>
@@ -1098,7 +1101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -1112,7 +1115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1126,7 +1129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1140,7 +1143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1154,13 +1157,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
       <c r="G7" t="s">
         <v>6</v>
       </c>
@@ -1168,7 +1174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1182,7 +1188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1196,7 +1202,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -1210,7 +1216,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1224,7 +1230,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1238,7 +1244,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1252,7 +1258,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -1266,7 +1272,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -1280,7 +1286,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -1294,7 +1300,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -1308,7 +1314,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -1322,7 +1328,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -1336,7 +1342,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>3</v>
       </c>
@@ -1350,13 +1356,19 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>1</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
       </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
       <c r="G21" t="s">
         <v>6</v>
       </c>
@@ -1364,7 +1376,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>1</v>
       </c>
